--- a/FLEX.NET/ジャッキステータス.xlsx
+++ b/FLEX.NET/ジャッキステータス.xlsx
@@ -589,7 +589,7 @@
       </c>
       <c r="C3" s="3">
         <f>VALUE((MID($H$4,11-B3,1)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>10</v>
       </c>
       <c r="H3" s="4">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.15">
@@ -607,14 +607,14 @@
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C12" si="0">VALUE((MID($H$4,11-B4,1)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H4" s="1" t="str">
         <f>DEC2BIN(H3,10)</f>
-        <v>0000110100</v>
+        <v>0001000011</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.15">
@@ -623,7 +623,7 @@
       </c>
       <c r="C5" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>2</v>
@@ -647,7 +647,7 @@
       </c>
       <c r="C7" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>4</v>
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>5</v>
@@ -671,7 +671,7 @@
       </c>
       <c r="C9" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
